--- a/TelegramBot/doc.xlsx
+++ b/TelegramBot/doc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,230 +465,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>igor_just_igor</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 09:54:53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 09:55:14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0ч, 0м, 21с</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>igor_just_igor</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 10:35:10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 13:50:25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3ч, 15м, 15с</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>igor_just_igor</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 13:50:36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 13:50:45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0ч, 0м, 9с</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>igor_just_igor</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 13:51:35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 13:51:39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0ч, 0м, 4с</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>igor_just_igor</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Красная площадь</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 13:53:06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 13:53:14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0ч, 0м, 8с</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>igor_just_igor</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Октябрьская</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Алабушево</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 13:53:23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>14 September 2023 года, 12:32:38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>46ч, 39м, 15с</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>goncharovatat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Тверская</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Тверская</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 09:56:33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12 September 2023 года, 09:56:49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0ч, 0м, 16с</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TelegramBot/doc.xlsx
+++ b/TelegramBot/doc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,102 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>igor_just_igor</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test obj</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Тверская</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09 October 2023 года, 09:40:58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09 October 2023 года, 09:45:12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0ч, 4м, 14с</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>igor_just_igor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test obj</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Октябрьская</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09 October 2023 года, 09:45:28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09 October 2023 года, 09:50:51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0ч, 5м, 23с</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>igor_just_igor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test obj</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Не закрыт</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>09 October 2023 года, 09:45:28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Не закрыт</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Не закрыт</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TelegramBot/doc.xlsx
+++ b/TelegramBot/doc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,25 +537,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test obj</t>
+          <t>Октябрьская</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Красная площадь</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>09 October 2023 года, 09:51:41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09 October 2023 года, 10:32:36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0ч, 40м, 55с</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>igor_just_igor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Октябрьская</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Не закрыт</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>09 October 2023 года, 09:45:28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>09 October 2023 года, 10:33:22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Не закрыт</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Не закрыт</t>
         </is>
